--- a/ncp-gop-transect-winter-2018/gop-transect-en608.xlsx
+++ b/ncp-gop-transect-winter-2018/gop-transect-en608.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-winter-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>attributeName</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>character</t>
+  </si>
+  <si>
+    <t>iode_quality_flag</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -703,6 +709,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ncp-gop-transect-winter-2018/gop-transect-en608.xlsx
+++ b/ncp-gop-transect-winter-2018/gop-transect-en608.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-winter-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="876" yWindow="1464" windowWidth="24636" windowHeight="13584"/>
   </bookViews>
   <sheets>
-    <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoricalVariables" sheetId="2" r:id="rId1"/>
+    <sheet name="ColumnHeaders" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>attributeName</t>
   </si>
@@ -152,7 +153,40 @@
     <t>iode_quality_flag</t>
   </si>
   <si>
-    <t>flag</t>
+    <t>IODE Quality Flag primary level</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>toi_niskin</t>
+  </si>
+  <si>
+    <t>sample bottle was filled from a Niskin bottle on CTD rosette</t>
+  </si>
+  <si>
+    <t>toi_underway</t>
+  </si>
+  <si>
+    <t>sample bottle was filled from the ship's underway system</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>quality not evaluated, not available or unknown</t>
+  </si>
+  <si>
+    <t>questionable/suspect</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>missing data</t>
   </si>
 </sst>
 </file>
@@ -507,10 +541,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
